--- a/Day-11_EFA & Cluster Analysis/Cluster Analysis/Case 2_Shopping Mall_Cluster Analysis.xlsx
+++ b/Day-11_EFA & Cluster Analysis/Cluster Analysis/Case 2_Shopping Mall_Cluster Analysis.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IACSD\Advanced_analytics\Advanced_analytics\Day-11_EFA &amp; Cluster Analysis\Cluster Analysis\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE2F4C2-3BAD-4BDF-AF8D-FB49BE026389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="14295" windowHeight="4620"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,8 +45,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,13 +94,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -132,7 +146,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -166,6 +180,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -200,9 +215,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -375,16 +391,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="B1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -404,7 +420,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>5</v>
       </c>
@@ -424,7 +440,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>7</v>
       </c>
@@ -444,7 +460,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -464,7 +480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -484,7 +500,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -504,7 +520,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -524,7 +540,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>5</v>
       </c>
@@ -544,7 +560,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -564,7 +580,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2</v>
       </c>
@@ -584,7 +600,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3</v>
       </c>
@@ -604,7 +620,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -624,7 +640,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>5</v>
       </c>
@@ -644,7 +660,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
@@ -664,7 +680,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>4</v>
       </c>
@@ -684,7 +700,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>6</v>
       </c>
@@ -704,7 +720,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3</v>
       </c>
@@ -724,7 +740,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>4</v>
       </c>
@@ -744,7 +760,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>3</v>
       </c>
@@ -764,7 +780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>4</v>
       </c>
@@ -784,7 +800,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -804,7 +820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>6</v>
       </c>
@@ -824,7 +840,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2</v>
       </c>
@@ -844,7 +860,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>7</v>
       </c>
@@ -864,7 +880,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>4</v>
       </c>
@@ -884,7 +900,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1</v>
       </c>
@@ -911,24 +927,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
